--- a/reportes/file02.xlsx
+++ b/reportes/file02.xlsx
@@ -395,7 +395,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>32.852335678516</v>
+        <v>NAN</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -403,25 +403,25 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>8.906516481989</v>
+        <v>NAN</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <f>B2/(12*20)</f>
-        <v>0.13688473199382</v>
+      <c r="B4" t="str">
+        <f>B2/(12*500)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <f>B3/(12*20)</f>
-        <v>0.037110485341621</v>
+      <c r="B5" t="str">
+        <f>B3/(12*500)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -429,7 +429,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.092190469973684</v>
+        <v>0.098176176523286</v>
       </c>
     </row>
   </sheetData>

--- a/reportes/file02.xlsx
+++ b/reportes/file02.xlsx
@@ -395,7 +395,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>NAN</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -403,25 +403,25 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>NAN</v>
+        <v>73.361080202582</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="str">
-        <f>B2/(12*500)</f>
-        <v>0</v>
+      <c r="B4">
+        <f>B2/(12*100)</f>
+        <v>0.083333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="str">
-        <f>B3/(12*500)</f>
-        <v>0</v>
+      <c r="B5">
+        <f>B3/(12*100)</f>
+        <v>0.061134233502152</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -429,7 +429,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.098176176523286</v>
+        <v>0.081194294852525</v>
       </c>
     </row>
   </sheetData>

--- a/reportes/file02.xlsx
+++ b/reportes/file02.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>FORMULA</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>var</t>
+  </si>
+  <si>
+    <t>tablaXa,n</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +432,15 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.081194294852525</v>
+        <v>0.065599199873737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>16.918977604633</v>
       </c>
     </row>
   </sheetData>

--- a/reportes/file02.xlsx
+++ b/reportes/file02.xlsx
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>NAN</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -406,25 +406,25 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>73.361080202582</v>
+        <v>NAN</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <f>B2/(12*100)</f>
-        <v>0.083333333333333</v>
+      <c r="B4" t="str">
+        <f>B2/(12*1000)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <f>B3/(12*100)</f>
-        <v>0.061134233502152</v>
+      <c r="B5" t="str">
+        <f>B3/(12*1000)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.065599199873737</v>
+        <v>0.069217483891251</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -440,7 +440,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>16.918977604633</v>
+        <v>43.773064159559</v>
       </c>
     </row>
   </sheetData>

--- a/reportes/file02.xlsx
+++ b/reportes/file02.xlsx
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.069217483891251</v>
+        <v>0.086037811351351</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/reportes/file02.xlsx
+++ b/reportes/file02.xlsx
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>NAN</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -406,25 +406,25 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>NAN</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="str">
-        <f>B2/(12*1000)</f>
-        <v>0</v>
+      <c r="B4">
+        <f>B2/(12*150)</f>
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="str">
-        <f>B3/(12*1000)</f>
-        <v>0</v>
+      <c r="B5">
+        <f>B3/(12*150)</f>
+        <v>0.055555555555556</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.086037811351351</v>
+        <v>0.096541412416107</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -440,7 +440,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>43.773064159559</v>
+        <v>19.675137572927</v>
       </c>
     </row>
   </sheetData>

--- a/reportes/file02.xlsx
+++ b/reportes/file02.xlsx
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>NAN</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -406,25 +406,25 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>NAN</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <f>B2/(12*150)</f>
-        <v>0.055555555555556</v>
+      <c r="B4" t="str">
+        <f>B2/(12*1523)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <f>B3/(12*150)</f>
-        <v>0.055555555555556</v>
+      <c r="B5" t="str">
+        <f>B3/(12*1523)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.096541412416107</v>
+        <v>0.084400690052562</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -440,7 +440,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>19.675137572927</v>
+        <v>53.384528124401</v>
       </c>
     </row>
   </sheetData>

--- a/reportes/file02.xlsx
+++ b/reportes/file02.xlsx
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>NAN</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -406,25 +406,25 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>NAN</v>
+        <v>73.361080202582</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="str">
-        <f>B2/(12*1523)</f>
-        <v>0</v>
+      <c r="B4">
+        <f>B2/(12*100)</f>
+        <v>0.083333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="str">
-        <f>B3/(12*1523)</f>
-        <v>0</v>
+      <c r="B5">
+        <f>B3/(12*100)</f>
+        <v>0.061134233502152</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.084400690052562</v>
+        <v>0.086562964848485</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -440,7 +440,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>53.384528124401</v>
+        <v>16.918977604633</v>
       </c>
     </row>
   </sheetData>

--- a/reportes/file02.xlsx
+++ b/reportes/file02.xlsx
@@ -15,32 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
-  <si>
-    <t>FORMULA</t>
-  </si>
-  <si>
-    <t>VALOR</t>
-  </si>
-  <si>
-    <t>a/2</t>
-  </si>
-  <si>
-    <t>1-(a/2)</t>
-  </si>
-  <si>
-    <t>LI</t>
-  </si>
-  <si>
-    <t>LS</t>
-  </si>
-  <si>
-    <t>var</t>
-  </si>
-  <si>
-    <t>tablaXa,n</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,73 +352,14 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>73.361080202582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <f>B2/(12*100)</f>
-        <v>0.083333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <f>B3/(12*100)</f>
-        <v>0.061134233502152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0.086562964848485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>16.918977604633</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reportes/file02.xlsx
+++ b/reportes/file02.xlsx
@@ -352,14 +352,5015 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>0.0643</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>0.0764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>0.0317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>0.5027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>0.6881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>0.3254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>0.6903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>0.4991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>0.4039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>0.8879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>0.0997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>0.8713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>0.7891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>0.2994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>0.6376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>0.3385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>0.7245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>0.1992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>0.7268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>0.3808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>0.0641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>0.0606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>0.7843</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>0.9204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>0.6655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>0.5412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>0.7277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>0.4519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>0.6775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>0.4886</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>0.5749</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>0.3883</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>0.6562</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>0.8069</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>0.7047</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>0.636</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>0.2122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>0.7531</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>0.4572</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>0.0959</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>0.5713</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>0.1041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>0.2186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>0.2584</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>0.4006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>0.6273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>0.5253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>0.4724</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>0.2959</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>0.3613</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>0.5246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>0.4171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>0.4235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>0.4353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>0.3669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>0.9667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>0.3209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>0.4482</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>0.3853</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>0.4194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>0.1116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>0.8108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>0.0126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>0.9477</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>0.8209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>0.9495</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>0.963</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>0.0288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>0.2737</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>0.6086</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>0.0489</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>0.8606</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>0.9443</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>0.5524</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>0.6119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>0.3095</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>0.3432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>0.0956</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>0.5476</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>0.233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>0.3953</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>0.2089</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>0.4926</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>0.8907</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>0.3207</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>0.3192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>0.2008</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>0.8531</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>0.3522</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>0.8061</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>0.6415</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>0.6464</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>0.0332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>0.6211</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>0.0358</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>0.8264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>0.2442</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>0.2795</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>0.0665</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>0.2501</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>0.7453</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>0.8414</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>0.4285</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>0.5285</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>0.725</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>0.2387</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>0.8453</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>0.7364</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>0.1387</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>0.9503</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>0.0261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>0.0605</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>0.7764</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>0.2967</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>0.4244</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>0.5063</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>0.9723</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>0.763</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>0.2388</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>0.8532</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>0.3601</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>0.4298</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>0.9327</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>0.6366</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>0.2595</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>0.4875</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>0.4881</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>0.5354</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>0.2698</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>0.3007</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>0.7402</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>0.4387</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>0.6353</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>0.1569</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>0.3872</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>0.5694</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>0.9541</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>0.3261</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>0.7455</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>0.8572</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>0.6759</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>0.3623</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>0.6035</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>0.6463</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>0.0253</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>0.9974</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>0.7447</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>0.794</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>0.6863</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>0.1833</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>0.4715</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>0.2249</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>0.7558</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>0.6704</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>0.928</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>0.2656</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>0.9691</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>0.5104</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <v>0.296</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <v>0.3692</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <v>0.1483</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <v>0.7082</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168">
+        <v>0.9123</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
+        <v>0.0527</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <v>0.1606</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172">
+        <v>0.6793</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173">
+        <v>0.6307</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <v>0.7937</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175">
+        <v>0.6626</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>0.3122</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>0.6481</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <v>0.1674</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <v>0.2162</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180">
+        <v>0.0689</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181">
+        <v>0.4396</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182">
+        <v>0.7064</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <v>0.7702</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184">
+        <v>0.8072</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185">
+        <v>0.7284</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186">
+        <v>0.5071</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187">
+        <v>0.0355</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188">
+        <v>0.8027</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189">
+        <v>0.3731</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <v>0.4562</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <v>0.0169</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192">
+        <v>0.3342</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193">
+        <v>0.385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194">
+        <v>0.3957</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195">
+        <v>0.2405</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196">
+        <v>0.9874</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197">
+        <v>0.9552</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199">
+        <v>0.6063</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200">
+        <v>0.8673</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201">
+        <v>0.4733</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202">
+        <v>0.367</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203">
+        <v>0.9746</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204">
+        <v>0.9446</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205">
+        <v>0.5761</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206">
+        <v>0.483</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207">
+        <v>0.1328</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208">
+        <v>0.4845</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209">
+        <v>0.2512</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210">
+        <v>0.8322</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211">
+        <v>0.7021</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212">
+        <v>0.4307</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213">
+        <v>0.0037</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214">
+        <v>0.9211</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215">
+        <v>0.7208</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216">
+        <v>0.9071</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217">
+        <v>0.6155</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218">
+        <v>0.5937</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219">
+        <v>0.8726</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220">
+        <v>0.8917</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221">
+        <v>0.3997</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222">
+        <v>0.5563</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223">
+        <v>0.9198</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224">
+        <v>0.6182</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225">
+        <v>0.8068</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226">
+        <v>0.6968</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227">
+        <v>0.0123</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228">
+        <v>0.7108</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229">
+        <v>0.1176</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230">
+        <v>0.2845</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231">
+        <v>0.4612</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232">
+        <v>0.4117</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233">
+        <v>0.5037</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234">
+        <v>0.7671</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236">
+        <v>0.4093</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237">
+        <v>0.3142</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238">
+        <v>0.806</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239">
+        <v>0.6337</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240">
+        <v>0.0306</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241">
+        <v>0.4158</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242">
+        <v>0.8274</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243">
+        <v>0.3232</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244">
+        <v>0.5166</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245">
+        <v>0.7855</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246">
+        <v>0.0152</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249">
+        <v>0.3705</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250">
+        <v>0.2509</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251">
+        <v>0.8085</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252">
+        <v>0.831</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253">
+        <v>0.6074</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254">
+        <v>0.9542</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255">
+        <v>0.334</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256">
+        <v>0.3693</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257">
+        <v>0.1562</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258">
+        <v>0.3319</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259">
+        <v>0.2035</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260">
+        <v>0.0663</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261">
+        <v>0.2343</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262">
+        <v>0.4979</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263">
+        <v>0.3092</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264">
+        <v>0.4113</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265">
+        <v>0.4721</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266">
+        <v>0.2722</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267">
+        <v>0.4901</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268">
+        <v>0.6933</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269">
+        <v>0.736</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270">
+        <v>0.1072</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271">
+        <v>0.4634</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272">
+        <v>0.5854</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273">
+        <v>0.2173</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274">
+        <v>0.1558</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275">
+        <v>0.3004</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276">
+        <v>0.7165</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277">
+        <v>0.5676</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278">
+        <v>0.812</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279">
+        <v>0.1074</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280">
+        <v>0.4792</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281">
+        <v>0.8328</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282">
+        <v>0.7495</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283">
+        <v>0.173</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284">
+        <v>0.6583</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285">
+        <v>0.9727</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286">
+        <v>0.7946</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287">
+        <v>0.7336</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288">
+        <v>0.9177</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289">
+        <v>0.4524</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290">
+        <v>0.7169</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291">
+        <v>0.5992</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292">
+        <v>0.3068</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293">
+        <v>0.2218</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294">
+        <v>0.5111</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295">
+        <v>0.3513</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296">
+        <v>0.7351</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297">
+        <v>0.0361</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299">
+        <v>0.1075</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300">
+        <v>0.4871</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301">
+        <v>0.4565</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302">
+        <v>0.0406</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303">
+        <v>0.2053</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304">
+        <v>0.2084</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305">
+        <v>0.4531</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306">
+        <v>0.7722</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307">
+        <v>0.9651</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308">
+        <v>0.1946</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309">
+        <v>0.3636</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310">
+        <v>0.7062</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311">
+        <v>0.7544</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312">
+        <v>0.5598</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313">
+        <v>0.1962</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314">
+        <v>0.4899</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315">
+        <v>0.6776</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316">
+        <v>0.4965</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317">
+        <v>0.1986</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318">
+        <v>0.6794</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319">
+        <v>0.6386</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320">
+        <v>0.4174</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321">
+        <v>0.9537</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322">
+        <v>0.2946</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323">
+        <v>0.2586</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324">
+        <v>0.4164</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325">
+        <v>0.8747</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326">
+        <v>0.0575</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327">
+        <v>0.5396</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328">
+        <v>0.6014</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329">
+        <v>0.4805</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330">
+        <v>0.9354</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331">
+        <v>0.8498</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332">
+        <v>0.0917</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333">
+        <v>0.2397</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334">
+        <v>0.9243</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335">
+        <v>0.9734</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336">
+        <v>0.8499</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337">
+        <v>0.0996</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338">
+        <v>0.8634</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339">
+        <v>0.1654</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340">
+        <v>0.0583</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341">
+        <v>0.6027</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342">
+        <v>0.5831</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343">
+        <v>0.0357</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344">
+        <v>0.8185</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345">
+        <v>0.6205</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346">
+        <v>0.9884</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347">
+        <v>0.0341</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348">
+        <v>0.6921</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349">
+        <v>0.6412</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350">
+        <v>0.6227</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351">
+        <v>0.1621</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352">
+        <v>0.7977</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353">
+        <v>0.9784</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354">
+        <v>0.2446</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355">
+        <v>0.3111</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356">
+        <v>0.5613</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357">
+        <v>0.3146</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358">
+        <v>0.8376</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359">
+        <v>0.1285</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360">
+        <v>0.145</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361">
+        <v>0.4477</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362">
+        <v>0.3459</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363">
+        <v>0.3088</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364">
+        <v>0.3797</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365">
+        <v>0.9773</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366">
+        <v>0.1578</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367">
+        <v>0.4583</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368">
+        <v>0.1827</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369">
+        <v>0.4241</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370">
+        <v>0.4826</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371">
+        <v>0.1012</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372">
+        <v>0.9897</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373">
+        <v>0.1368</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374">
+        <v>0.8003</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375">
+        <v>0.1836</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376">
+        <v>0.4952</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377">
+        <v>0.096</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378">
+        <v>0.5792</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379">
+        <v>0.7278</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380">
+        <v>0.4598</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381">
+        <v>0.3012</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382">
+        <v>0.7797</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383">
+        <v>0.5573</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384">
+        <v>0.9988</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385">
+        <v>0.8552</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386">
+        <v>0.518</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387">
+        <v>0.8961</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389">
+        <v>0.9756</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390">
+        <v>0.0236</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391">
+        <v>0.8632</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392">
+        <v>0.1496</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393">
+        <v>0.8109</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394">
+        <v>0.0205</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395">
+        <v>0.6184</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396">
+        <v>0.8226</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397">
+        <v>0.9442</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398">
+        <v>0.5445</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399">
+        <v>0.9882</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400">
+        <v>0.0183</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401">
+        <v>0.4447</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403">
+        <v>0.6055</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404">
+        <v>0.8042</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405">
+        <v>0.4915</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406">
+        <v>0.8039</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407">
+        <v>0.4679</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408">
+        <v>0.9407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409">
+        <v>0.2682</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410">
+        <v>0.1743</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411">
+        <v>0.7609</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412">
+        <v>0.073</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413">
+        <v>0.7633</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414">
+        <v>0.2625</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415">
+        <v>0.7243</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416">
+        <v>0.1834</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417">
+        <v>0.4794</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418">
+        <v>0.8486</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419">
+        <v>0.9969</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420">
+        <v>0.7052</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421">
+        <v>0.6755</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422">
+        <v>0.3307</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423">
+        <v>0.1087</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424">
+        <v>0.5818</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425">
+        <v>0.9331</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426">
+        <v>0.6682</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427">
+        <v>0.7543</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428">
+        <v>0.5519</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429">
+        <v>0.5725</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430">
+        <v>0.1988</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431">
+        <v>0.6952</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432">
+        <v>0.886</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433">
+        <v>0.9497</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434">
+        <v>0.9788</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435">
+        <v>0.2762</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436">
+        <v>0.8059</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437">
+        <v>0.6258</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438">
+        <v>0.4069</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439">
+        <v>0.1247</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440">
+        <v>0.845</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441">
+        <v>0.7127</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442">
+        <v>0.2676</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444">
+        <v>0.0266</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446">
+        <v>0.895</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447">
+        <v>0.6602</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448">
+        <v>0.1227</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449">
+        <v>0.6871</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450">
+        <v>0.2465</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451">
+        <v>0.4611</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452">
+        <v>0.4038</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454">
+        <v>0.476</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455">
+        <v>0.5802</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456">
+        <v>0.8067</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457">
+        <v>0.6889</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458">
+        <v>0.3886</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459">
+        <v>0.6799</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460">
+        <v>0.6781</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461">
+        <v>0.5359</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462">
+        <v>0.3093</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463">
+        <v>0.4192</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464">
+        <v>0.0958</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465">
+        <v>0.5634</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466">
+        <v>0.4804</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467">
+        <v>0.9275</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468">
+        <v>0.2261</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469">
+        <v>0.8505</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470">
+        <v>0.1469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471">
+        <v>0.5977</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472">
+        <v>0.1884</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473">
+        <v>0.8741</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474">
+        <v>0.0101</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475">
+        <v>0.9739</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476">
+        <v>0.8894</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477">
+        <v>0.2181</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478">
+        <v>0.2189</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479">
+        <v>0.2821</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480">
+        <v>0.2717</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481">
+        <v>0.4507</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482">
+        <v>0.5827</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483">
+        <v>0.0041</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484">
+        <v>0.2369</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485">
+        <v>0.7032</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486">
+        <v>0.5176</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487">
+        <v>0.8645</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488">
+        <v>0.2522</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489">
+        <v>0.9111</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490">
+        <v>0.9313</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491">
+        <v>0.5261</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492">
+        <v>0.5355</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493">
+        <v>0.2777</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494">
+        <v>0.9244</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495">
+        <v>0.9813</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496">
+        <v>0.4736</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497">
+        <v>0.3907</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498">
+        <v>0.8457</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499">
+        <v>0.768</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500">
+        <v>0.6336</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501">
+        <v>0.0227</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502">
+        <v>0.7921</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503">
+        <v>0.5362</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504">
+        <v>0.3329</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505">
+        <v>0.2824</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506">
+        <v>0.2954</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507">
+        <v>0.3218</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508">
+        <v>0.4061</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509">
+        <v>0.0615</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510">
+        <v>0.8554</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511">
+        <v>0.5338</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512">
+        <v>0.1435</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513">
+        <v>0.3293</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514">
+        <v>0.9982</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515">
+        <v>0.8078</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516">
+        <v>0.7758</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517">
+        <v>0.2494</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518">
+        <v>0.6901</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519">
+        <v>0.4833</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520">
+        <v>0.1565</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521">
+        <v>0.3556</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522">
+        <v>0.0746</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523">
+        <v>0.8896</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524">
+        <v>0.2339</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525">
+        <v>0.4664</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526">
+        <v>0.8222</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527">
+        <v>0.9126</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528">
+        <v>0.0497</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529">
+        <v>0.9238</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530">
+        <v>0.934</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531">
+        <v>0.7393</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532">
+        <v>0.3677</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533">
+        <v>0.0299</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534">
+        <v>0.3606</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535">
+        <v>0.4693</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536">
+        <v>0.0512</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537">
+        <v>0.0422</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538">
+        <v>0.3316</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539">
+        <v>0.1798</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540">
+        <v>0.1952</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541">
+        <v>0.411</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542">
+        <v>0.4484</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543">
+        <v>0.4011</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544">
+        <v>0.6668</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545">
+        <v>0.6438</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546">
+        <v>0.828</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547">
+        <v>0.3706</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548">
+        <v>0.2588</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549">
+        <v>0.4322</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550">
+        <v>0.1221</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551">
+        <v>0.6397</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552">
+        <v>0.5043</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553">
+        <v>0.8144</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554">
+        <v>0.2968</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555">
+        <v>0.4323</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557">
+        <v>0.2635</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558">
+        <v>0.8033</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559">
+        <v>0.4205</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560">
+        <v>0.1984</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561">
+        <v>0.6636</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562">
+        <v>0.3912</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563">
+        <v>0.8852</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564">
+        <v>0.8865</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565">
+        <v>0.9891</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566">
+        <v>0.0894</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567">
+        <v>0.0581</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568">
+        <v>0.5869</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569">
+        <v>0.3357</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570">
+        <v>0.5035</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571">
+        <v>0.7513</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572">
+        <v>0.3151</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573">
+        <v>0.8771</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575">
+        <v>0.5006</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576">
+        <v>0.5223</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577">
+        <v>0.2355</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578">
+        <v>0.5927</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579">
+        <v>0.7936</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580">
+        <v>0.6547</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581">
+        <v>0.6885</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583">
+        <v>0.1851</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584">
+        <v>0.6136</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585">
+        <v>0.4437</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586">
+        <v>0.0301</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587">
+        <v>0.3763</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588">
+        <v>0.7088</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589">
+        <v>0.9597</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590">
+        <v>0.7683</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591">
+        <v>0.6572</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592">
+        <v>0.8859</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593">
+        <v>0.9418</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594">
+        <v>0.3551</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595">
+        <v>0.0351</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596">
+        <v>0.7711</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597">
+        <v>0.8783</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598">
+        <v>0.3417</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599">
+        <v>0.9772</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600">
+        <v>0.1499</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601">
+        <v>0.8346</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602">
+        <v>0.8916</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603">
+        <v>0.3918</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604">
+        <v>0.9326</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605">
+        <v>0.6287</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606">
+        <v>0.6358</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607">
+        <v>0.1964</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608">
+        <v>0.5057</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610">
+        <v>0.0287</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611">
+        <v>0.2658</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612">
+        <v>0.9849</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613">
+        <v>0.7578</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614">
+        <v>0.8283</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615">
+        <v>0.3942</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617">
+        <v>0.6319</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618">
+        <v>0.8885</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619">
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620">
+        <v>0.6056</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621">
+        <v>0.8121</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622">
+        <v>0.1152</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624">
+        <v>0.5002</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625">
+        <v>0.4907</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626">
+        <v>0.7407</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627">
+        <v>0.4782</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628">
+        <v>0.7538</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629">
+        <v>0.5125</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630">
+        <v>0.4618</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631">
+        <v>0.4591</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632">
+        <v>0.2459</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633">
+        <v>0.4138</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634">
+        <v>0.6695</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635">
+        <v>0.857</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636">
+        <v>0.6601</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637">
+        <v>0.1148</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638">
+        <v>0.0634</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639">
+        <v>0.0054</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640">
+        <v>0.2633</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641">
+        <v>0.7875</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642">
+        <v>0.1731</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643">
+        <v>0.6662</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644">
+        <v>0.5964</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645">
+        <v>0.0857</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646">
+        <v>0.766</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647">
+        <v>0.4757</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648">
+        <v>0.5565</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649">
+        <v>0.9356</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650">
+        <v>0.8656</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651">
+        <v>0.3391</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652">
+        <v>0.7719</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653">
+        <v>0.9415</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654">
+        <v>0.3314</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655">
+        <v>0.164</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656">
+        <v>0.9478</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657">
+        <v>0.8288</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658">
+        <v>0.4337</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659">
+        <v>0.2406</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660">
+        <v>0.9953</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661">
+        <v>0.5789</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662">
+        <v>0.7041</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663">
+        <v>0.5886</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664">
+        <v>0.4699</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665">
+        <v>0.0986</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666">
+        <v>0.7844</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667">
+        <v>0.9283</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668">
+        <v>0.2892</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669">
+        <v>0.8323</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671">
+        <v>0.0545</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672">
+        <v>0.3027</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673">
+        <v>0.8981</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674">
+        <v>0.9049</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675">
+        <v>0.4418</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676">
+        <v>0.8801</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677">
+        <v>0.4838</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678">
+        <v>0.196</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679">
+        <v>0.4742</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681">
+        <v>0.5801</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682">
+        <v>0.7988</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683">
+        <v>0.0652</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684">
+        <v>0.1475</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685">
+        <v>0.6451</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686">
+        <v>0.9306</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687">
+        <v>0.4708</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688">
+        <v>0.1696</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689">
+        <v>0.3899</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690">
+        <v>0.7826</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691">
+        <v>0.7862</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692">
+        <v>0.0704</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693">
+        <v>0.558</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694">
+        <v>0.0541</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695">
+        <v>0.2711</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696">
+        <v>0.4033</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697">
+        <v>0.8405</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698">
+        <v>0.3574</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699">
+        <v>0.2167</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700">
+        <v>0.1084</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701">
+        <v>0.5581</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702">
+        <v>0.0619</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703">
+        <v>0.887</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704">
+        <v>0.0286</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705">
+        <v>0.2579</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706">
+        <v>0.3612</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707">
+        <v>0.5167</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708">
+        <v>0.7934</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709">
+        <v>0.6389</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710">
+        <v>0.4411</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711">
+        <v>0.8248</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712">
+        <v>0.1179</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713">
+        <v>0.3082</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714">
+        <v>0.3323</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716">
+        <v>0.5532</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717">
+        <v>0.6751</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718">
+        <v>0.2991</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719">
+        <v>0.6139</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720">
+        <v>0.4674</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721">
+        <v>0.9012</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722">
+        <v>0.1497</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723">
+        <v>0.8188</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724">
+        <v>0.6442</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725">
+        <v>0.8595</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726">
+        <v>0.8575</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727">
+        <v>0.6996</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728">
+        <v>0.2334</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729">
+        <v>0.4269</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730">
+        <v>0.7037</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731">
+        <v>0.5571</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732">
+        <v>0.983</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733">
+        <v>0.6078</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734">
+        <v>0.9858</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735">
+        <v>0.8289</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736">
+        <v>0.4416</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737">
+        <v>0.8643</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738">
+        <v>0.2364</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739">
+        <v>0.6637</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740">
+        <v>0.3991</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741">
+        <v>0.5089</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742">
+        <v>0.1776</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743">
+        <v>0.0215</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744">
+        <v>0.6974</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745">
+        <v>0.0597</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746">
+        <v>0.7133</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748">
+        <v>0.8692</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749">
+        <v>0.6233</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750">
+        <v>0.2095</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752">
+        <v>0.633</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753">
+        <v>0.9753</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754">
+        <v>0.9999</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755">
+        <v>0.9421</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756">
+        <v>0.3787</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757">
+        <v>0.8983</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758">
+        <v>0.9207</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759">
+        <v>0.6892</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760">
+        <v>0.4123</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761">
+        <v>0.551</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762">
+        <v>0.5014</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763">
+        <v>0.5855</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764">
+        <v>0.2252</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765">
+        <v>0.7795</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766">
+        <v>0.5415</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767">
+        <v>0.7514</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768">
+        <v>0.323</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769">
+        <v>0.5008</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770">
+        <v>0.5381</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771">
+        <v>0.4829</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772">
+        <v>0.1249</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773">
+        <v>0.8608</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774">
+        <v>0.9601</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775">
+        <v>0.7998</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776">
+        <v>0.1442</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777">
+        <v>0.3845</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778">
+        <v>0.3562</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779">
+        <v>0.1219</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781">
+        <v>0.2648</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782">
+        <v>0.9059</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783">
+        <v>0.5208</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784">
+        <v>0.1171</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786">
+        <v>0.3427</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787">
+        <v>0.0561</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788">
+        <v>0.429</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789">
+        <v>0.8695</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790">
+        <v>0.647</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1">
+      <c r="A791">
+        <v>0.0806</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792">
+        <v>0.3633</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793">
+        <v>0.6825</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794">
+        <v>0.8833</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795">
+        <v>0.7365</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796">
+        <v>0.1466</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797">
+        <v>0.574</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798">
+        <v>0.3173</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799">
+        <v>0.0508</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800">
+        <v>0.0106</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801">
+        <v>0.3687</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802">
+        <v>0.1088</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803">
+        <v>0.5897</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804">
+        <v>0.5568</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805">
+        <v>0.9593</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806">
+        <v>0.7367</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1">
+      <c r="A807">
+        <v>0.1624</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808">
+        <v>0.8214</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809">
+        <v>0.8495</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1">
+      <c r="A810">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811">
+        <v>0.3686</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1">
+      <c r="A812">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1">
+      <c r="A813">
+        <v>0.966</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814">
+        <v>0.2657</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1">
+      <c r="A815">
+        <v>0.977</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1">
+      <c r="A816">
+        <v>0.1341</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817">
+        <v>0.5871</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818">
+        <v>0.3515</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1">
+      <c r="A819">
+        <v>0.7509</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820">
+        <v>0.2835</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821">
+        <v>0.3823</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822">
+        <v>0.1825</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823">
+        <v>0.4083</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824">
+        <v>0.2352</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825">
+        <v>0.569</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826">
+        <v>0.9225</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827">
+        <v>0.8313</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828">
+        <v>0.6311</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829">
+        <v>0.8253</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830">
+        <v>0.1574</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831">
+        <v>0.4267</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832">
+        <v>0.6879</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833">
+        <v>0.3097</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834">
+        <v>0.4508</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835">
+        <v>0.5906</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836">
+        <v>0.6278</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837">
+        <v>0.5648</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838">
+        <v>0.5909</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839">
+        <v>0.6515</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840">
+        <v>0.4359</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841">
+        <v>0.4143</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842">
+        <v>0.7089</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1">
+      <c r="A843">
+        <v>0.9676</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844">
+        <v>0.392</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845">
+        <v>0.9484</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1">
+      <c r="A846">
+        <v>0.8761</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1">
+      <c r="A847">
+        <v>0.168</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848">
+        <v>0.2636</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849">
+        <v>0.8112</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850">
+        <v>0.0442</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851">
+        <v>0.4895</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1">
+      <c r="A852">
+        <v>0.646</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1">
+      <c r="A853">
+        <v>0.0017</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1">
+      <c r="A854">
+        <v>0.3421</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1">
+      <c r="A855">
+        <v>0.0087</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1">
+      <c r="A856">
+        <v>0.8686</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1">
+      <c r="A857">
+        <v>0.5759</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1">
+      <c r="A858">
+        <v>0.4673</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1">
+      <c r="A859">
+        <v>0.8933</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1">
+      <c r="A860">
+        <v>0.526</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1">
+      <c r="A861">
+        <v>0.5277</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1">
+      <c r="A862">
+        <v>0.6619</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863">
+        <v>0.257</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1">
+      <c r="A864">
+        <v>0.2901</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865">
+        <v>0.9033</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866">
+        <v>0.3155</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867">
+        <v>0.9087</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868">
+        <v>0.7418</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869">
+        <v>0.5651</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1">
+      <c r="A870">
+        <v>0.6146</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871">
+        <v>0.5226</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872">
+        <v>0.2592</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873">
+        <v>0.4638</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1">
+      <c r="A874">
+        <v>0.617</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875">
+        <v>0.7121</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876">
+        <v>0.2202</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1">
+      <c r="A877">
+        <v>0.3847</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1">
+      <c r="A879">
+        <v>0.3694</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880">
+        <v>0.1641</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881">
+        <v>0.9556</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882">
+        <v>0.4446</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1">
+      <c r="A883">
+        <v>0.1011</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884">
+        <v>0.9818</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1">
+      <c r="A885">
+        <v>0.5131</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1">
+      <c r="A886">
+        <v>0.5092</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887">
+        <v>0.2013</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1">
+      <c r="A888">
+        <v>0.8926</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1">
+      <c r="A889">
+        <v>0.4707</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1">
+      <c r="A890">
+        <v>0.1617</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1">
+      <c r="A891">
+        <v>0.7662</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1">
+      <c r="A892">
+        <v>0.4914</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1">
+      <c r="A893">
+        <v>0.796</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1">
+      <c r="A894">
+        <v>0.8442</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1">
+      <c r="A895">
+        <v>0.6495</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1">
+      <c r="A896">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1">
+      <c r="A897">
+        <v>0.9481</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1">
+      <c r="A898">
+        <v>0.8524</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1">
+      <c r="A899">
+        <v>0.2969</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1">
+      <c r="A900">
+        <v>0.4402</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1">
+      <c r="A901">
+        <v>0.7537</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1">
+      <c r="A902">
+        <v>0.5046</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1">
+      <c r="A903">
+        <v>0.8381</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1">
+      <c r="A904">
+        <v>0.1679</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1">
+      <c r="A905">
+        <v>0.2557</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1">
+      <c r="A906">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1">
+      <c r="A907">
+        <v>0.8031</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1">
+      <c r="A908">
+        <v>0.4047</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1">
+      <c r="A909">
+        <v>0.951</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1">
+      <c r="A910">
+        <v>0.0814</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1">
+      <c r="A911">
+        <v>0.4265</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1">
+      <c r="A912">
+        <v>0.6721</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1">
+      <c r="A913">
+        <v>0.0622</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1">
+      <c r="A914">
+        <v>0.9106</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1">
+      <c r="A915">
+        <v>0.8918</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1">
+      <c r="A916">
+        <v>0.4076</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1">
+      <c r="A917">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1">
+      <c r="A918">
+        <v>0.211</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1">
+      <c r="A919">
+        <v>0.6584</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1">
+      <c r="A920">
+        <v>0.9806</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1">
+      <c r="A921">
+        <v>0.4183</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1">
+      <c r="A922">
+        <v>0.0247</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1">
+      <c r="A923">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1">
+      <c r="A924">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1">
+      <c r="A925">
+        <v>0.9737</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1">
+      <c r="A926">
+        <v>0.8736</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1">
+      <c r="A927">
+        <v>0.9707</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1">
+      <c r="A928">
+        <v>0.6367</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1">
+      <c r="A929">
+        <v>0.2674</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1">
+      <c r="A930">
+        <v>0.1112</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1">
+      <c r="A931">
+        <v>0.7792</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1">
+      <c r="A932">
+        <v>0.5178</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1">
+      <c r="A933">
+        <v>0.8803</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1">
+      <c r="A934">
+        <v>0.4996</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1">
+      <c r="A935">
+        <v>0.4434</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1">
+      <c r="A936">
+        <v>0.0064</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1">
+      <c r="A937">
+        <v>0.0528</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1">
+      <c r="A938">
+        <v>0.1685</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1">
+      <c r="A939">
+        <v>0.303</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1">
+      <c r="A940">
+        <v>0.9218</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1">
+      <c r="A941">
+        <v>0.7761</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1">
+      <c r="A942">
+        <v>0.273</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1">
+      <c r="A943">
+        <v>0.5533</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1">
+      <c r="A944">
+        <v>0.683</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1">
+      <c r="A945">
+        <v>0.9228</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1">
+      <c r="A946">
+        <v>0.855</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1">
+      <c r="A947">
+        <v>0.5022</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1">
+      <c r="A948">
+        <v>0.6486</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1">
+      <c r="A949">
+        <v>0.2069</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1">
+      <c r="A950">
+        <v>0.3347</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1">
+      <c r="A951">
+        <v>0.4245</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1">
+      <c r="A952">
+        <v>0.5142</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1">
+      <c r="A953">
+        <v>0.596</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1">
+      <c r="A954">
+        <v>0.0542</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1">
+      <c r="A955">
+        <v>0.279</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1">
+      <c r="A956">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1">
+      <c r="A957">
+        <v>0.1316</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1">
+      <c r="A958">
+        <v>0.3898</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1">
+      <c r="A959">
+        <v>0.7747</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1">
+      <c r="A960">
+        <v>0.1625</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1">
+      <c r="A961">
+        <v>0.8293</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1">
+      <c r="A962">
+        <v>0.4732</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1">
+      <c r="A963">
+        <v>0.3591</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1">
+      <c r="A964">
+        <v>0.3509</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1">
+      <c r="A965">
+        <v>0.7035</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1">
+      <c r="A966">
+        <v>0.5413</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1">
+      <c r="A967">
+        <v>0.7356</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1">
+      <c r="A968">
+        <v>0.0756</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1">
+      <c r="A969">
+        <v>0.9686</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1">
+      <c r="A970">
+        <v>0.4709</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1">
+      <c r="A971">
+        <v>0.1775</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1">
+      <c r="A972">
+        <v>0.0136</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1">
+      <c r="A973">
+        <v>0.0737</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1">
+      <c r="A974">
+        <v>0.8186</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1">
+      <c r="A975">
+        <v>0.6284</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1">
+      <c r="A976">
+        <v>0.6121</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1">
+      <c r="A977">
+        <v>0.3252</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978">
+        <v>0.6745</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1">
+      <c r="A979">
+        <v>0.2517</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1">
+      <c r="A980">
+        <v>0.8717</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981">
+        <v>0.8207</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1">
+      <c r="A982">
+        <v>0.7942</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1">
+      <c r="A983">
+        <v>0.702</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1">
+      <c r="A984">
+        <v>0.4229</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1">
+      <c r="A985">
+        <v>0.3879</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1">
+      <c r="A986">
+        <v>0.6247</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1">
+      <c r="A987">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1">
+      <c r="A988">
+        <v>0.264</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989">
+        <v>0.8428</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1">
+      <c r="A990">
+        <v>0.539</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1">
+      <c r="A991">
+        <v>0.554</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1">
+      <c r="A992">
+        <v>0.7383</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1">
+      <c r="A993">
+        <v>0.2887</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1">
+      <c r="A994">
+        <v>0.7928</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1">
+      <c r="A995">
+        <v>0.5915</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1">
+      <c r="A996">
+        <v>0.6989</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1">
+      <c r="A997">
+        <v>0.1781</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1">
+      <c r="A998">
+        <v>0.0609</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1">
+      <c r="A999">
+        <v>0.808</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1">
+      <c r="A1000">
+        <v>0.7916</v>
+      </c>
+    </row>
+  </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reportes/file02.xlsx
+++ b/reportes/file02.xlsx
@@ -352,14 +352,490 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>0.6298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>0.2393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>0.6693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>0.8257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>0.0668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>0.4895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>0.0524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>0.4311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>0.2284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>0.9556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>0.5726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>0.4938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>0.334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>0.8703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>0.9872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>0.6418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>0.637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>0.7107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>0.5366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>0.1365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>0.938</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>0.4202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>0.5146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>0.696</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>0.574</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>0.5855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>0.3385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>0.1649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>0.7976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>0.2268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>0.8508</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>0.7103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>0.5104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>0.4209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>0.5605</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>0.7015</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>0.9342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>0.1714</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>0.2232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>0.6151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>0.2767</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>0.1183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>0.7462</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>0.8611</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>0.3848</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>0.1967</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>0.8799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>0.6158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>0.3225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>0.1173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>0.6808</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>0.5787</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>0.8932</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>0.4867</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>0.8691</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>0.9086</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>0.4951</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>0.4191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>0.4426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>0.9814</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>0.262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>0.1557</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>0.1952</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>0.7816</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>0.1791</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>0.7274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>0.6301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>0.2589</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>0.9527</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>0.3827</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>0.0591</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>0.8698</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>0.9545</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>0.5006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>0.7792</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>0.4405</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>0.8439</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>0.2585</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>0.9265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>0.6672</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>0.6882</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>0.0633</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>0.1448</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>0.4815</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>0.5286</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>0.6127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>0.1195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>0.8248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>0.0079</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>0.1729</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>0.3214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>0.0452</v>
+      </c>
+    </row>
+  </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reportes/file02.xlsx
+++ b/reportes/file02.xlsx
@@ -352,14 +352,5015 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>0.1438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>0.353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>0.8693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>0.6312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>0.8332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>0.7811</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>0.6678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>0.7228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>0.1317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>0.3977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>0.3984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>0.4536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>0.8117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>0.0837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>0.6081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>0.0094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>0.4213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>0.2616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>0.6533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>0.578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>0.6331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>0.9832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>0.6236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>0.2332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>0.4111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>0.4563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>0.0248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>0.9579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>0.6262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>0.4384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>0.6116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>0.2858</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>0.5639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>0.5199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>0.0461</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>0.6395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>0.4885</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>0.567</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>0.7646</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>0.3651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>0.8246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>0.1021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>0.0607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>0.7922</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>0.5441</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>0.9566</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>0.5235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>0.3303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>0.0771</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>0.087</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>0.8686</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>0.5759</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>0.4673</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>0.8933</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>0.526</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>0.5277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>0.6619</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>0.257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>0.2901</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>0.9033</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>0.3155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>0.9087</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>0.7418</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>0.5651</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>0.6146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>0.5226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>0.2592</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>0.4638</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>0.617</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>0.7121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>0.2202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>0.3847</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>0.3694</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>0.1641</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>0.9556</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>0.4446</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>0.1011</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>0.9818</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>0.5131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>0.5092</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>0.2013</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>0.8926</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>0.4707</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>0.1617</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>0.7662</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>0.4914</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>0.796</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>0.8442</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>0.6495</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>0.9481</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>0.8524</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>0.2969</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>0.4402</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>0.7537</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>0.5046</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>0.8381</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>0.1679</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>0.2557</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>0.8031</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>0.4047</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>0.951</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>0.0814</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>0.4265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>0.6721</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>0.0622</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>0.9106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>0.8918</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>0.4076</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>0.211</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>0.6584</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>0.9806</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>0.4183</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>0.0247</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>0.9737</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>0.8736</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>0.9707</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>0.6367</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>0.2674</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>0.1112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>0.7792</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>0.5178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>0.8803</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>0.4996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>0.4434</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>0.0064</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>0.0528</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>0.1685</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>0.303</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>0.9218</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>0.7761</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>0.273</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>0.5533</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>0.683</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>0.9228</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>0.855</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>0.5022</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>0.6486</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>0.2069</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>0.3347</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>0.4245</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>0.5142</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>0.596</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>0.0542</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>0.279</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>0.1316</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>0.3898</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>0.7747</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>0.1625</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>0.8293</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>0.4732</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>0.3591</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>0.3509</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>0.7035</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>0.5413</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>0.7356</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <v>0.0756</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <v>0.9686</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <v>0.4709</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <v>0.1775</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168">
+        <v>0.0136</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <v>0.0737</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
+        <v>0.8186</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <v>0.6284</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172">
+        <v>0.6121</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173">
+        <v>0.3252</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <v>0.6745</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175">
+        <v>0.2517</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>0.8717</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>0.8207</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <v>0.7942</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <v>0.702</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180">
+        <v>0.4229</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181">
+        <v>0.3879</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182">
+        <v>0.6247</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184">
+        <v>0.264</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185">
+        <v>0.8428</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186">
+        <v>0.539</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187">
+        <v>0.554</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188">
+        <v>0.7383</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189">
+        <v>0.2887</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <v>0.7928</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <v>0.5915</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192">
+        <v>0.6989</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193">
+        <v>0.1781</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194">
+        <v>0.0609</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195">
+        <v>0.808</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196">
+        <v>0.7916</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197">
+        <v>0.4968</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198">
+        <v>0.2223</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199">
+        <v>0.5505</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200">
+        <v>0.4619</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201">
+        <v>0.467</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202">
+        <v>0.8696</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203">
+        <v>0.6549</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204">
+        <v>0.7043</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205">
+        <v>0.6044</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206">
+        <v>0.7173</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207">
+        <v>0.6308</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208">
+        <v>0.8016</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209">
+        <v>0.2863</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210">
+        <v>0.6033</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211">
+        <v>0.6305</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212">
+        <v>0.7779</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213">
+        <v>0.4152</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215">
+        <v>0.581</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216">
+        <v>0.8699</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217">
+        <v>0.6786</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218">
+        <v>0.5754</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219">
+        <v>0.4278</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220">
+        <v>0.7748</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221">
+        <v>0.1704</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222">
+        <v>0.453</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223">
+        <v>0.7643</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224">
+        <v>0.3414</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225">
+        <v>0.9535</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226">
+        <v>0.2788</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227">
+        <v>0.0112</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228">
+        <v>0.8424</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229">
+        <v>0.5074</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230">
+        <v>0.0592</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231">
+        <v>0.6738</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232">
+        <v>0.1965</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233">
+        <v>0.5136</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234">
+        <v>0.5487</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235">
+        <v>0.3198</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236">
+        <v>0.2482</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237">
+        <v>0.5953</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238">
+        <v>0.9989</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239">
+        <v>0.8631</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240">
+        <v>0.1417</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241">
+        <v>0.1872</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242">
+        <v>0.7794</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243">
+        <v>0.5336</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244">
+        <v>0.1277</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245">
+        <v>0.0819</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246">
+        <v>0.466</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247">
+        <v>0.7907</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248">
+        <v>0.4257</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249">
+        <v>0.609</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250">
+        <v>0.0805</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251">
+        <v>0.3554</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252">
+        <v>0.0588</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253">
+        <v>0.6422</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254">
+        <v>0.7016</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255">
+        <v>0.3913</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256">
+        <v>0.8931</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257">
+        <v>0.5102</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258">
+        <v>0.2802</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259">
+        <v>0.1217</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260">
+        <v>0.6082</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261">
+        <v>0.0173</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262">
+        <v>0.3658</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263">
+        <v>0.8799</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264">
+        <v>0.4681</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265">
+        <v>0.9564</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266">
+        <v>0.5077</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267">
+        <v>0.0829</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268">
+        <v>0.5449</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269">
+        <v>0.0198</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270">
+        <v>0.5632</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271">
+        <v>0.4646</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272">
+        <v>0.6801</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273">
+        <v>0.6938</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274">
+        <v>0.7755</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275">
+        <v>0.2257</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276">
+        <v>0.819</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279">
+        <v>0.4476</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280">
+        <v>0.338</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281">
+        <v>0.6851</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282">
+        <v>0.0886</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283">
+        <v>0.9949</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284">
+        <v>0.5473</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285">
+        <v>0.2093</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286">
+        <v>0.5242</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287">
+        <v>0.3855</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288">
+        <v>0.4352</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289">
+        <v>0.359</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291">
+        <v>0.0798</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292">
+        <v>0.3002</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293">
+        <v>0.7007</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294">
+        <v>0.3202</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295">
+        <v>0.2797</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296">
+        <v>0.0823</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297">
+        <v>0.4975</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298">
+        <v>0.2776</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299">
+        <v>0.9165</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300">
+        <v>0.3576</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301">
+        <v>0.2325</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302">
+        <v>0.3558</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303">
+        <v>0.0904</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304">
+        <v>0.137</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305">
+        <v>0.8161</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307">
+        <v>0.0274</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308">
+        <v>0.1632</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309">
+        <v>0.8846</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310">
+        <v>0.8391</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311">
+        <v>0.2469</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312">
+        <v>0.4927</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313">
+        <v>0.8986</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314">
+        <v>0.9444</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315">
+        <v>0.5603</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316">
+        <v>0.2356</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317">
+        <v>0.6006</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318">
+        <v>0.4173</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319">
+        <v>0.9458</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320">
+        <v>0.6709</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321">
+        <v>0.9675</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322">
+        <v>0.3841</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323">
+        <v>0.3246</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324">
+        <v>0.6271</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325">
+        <v>0.5095</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326">
+        <v>0.225</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327">
+        <v>0.7637</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328">
+        <v>0.2941</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329">
+        <v>0.2191</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330">
+        <v>0.2979</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331">
+        <v>0.5192</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332">
+        <v>0.9908</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333">
+        <v>0.2236</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334">
+        <v>0.6532</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335">
+        <v>0.5701</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336">
+        <v>0.0093</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337">
+        <v>0.3423</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338">
+        <v>0.0245</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339">
+        <v>0.9342</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341">
+        <v>0.6072</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342">
+        <v>0.9384</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343">
+        <v>0.0866</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344">
+        <v>0.837</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345">
+        <v>0.0811</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346">
+        <v>0.4028</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347">
+        <v>0.801</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348">
+        <v>0.2389</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349">
+        <v>0.8611</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350">
+        <v>0.9838</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351">
+        <v>0.671</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352">
+        <v>0.9754</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353">
+        <v>0.0078</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354">
+        <v>0.1581</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355">
+        <v>0.4819</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357">
+        <v>0.6317</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358">
+        <v>0.8727</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359">
+        <v>0.8996</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360">
+        <v>0.0234</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361">
+        <v>0.8474</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362">
+        <v>0.9022</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363">
+        <v>0.2286</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364">
+        <v>0.0479</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365">
+        <v>0.7817</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366">
+        <v>0.7152</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367">
+        <v>0.465</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368">
+        <v>0.7117</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369">
+        <v>0.1887</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370">
+        <v>0.8978</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371">
+        <v>0.8813</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372">
+        <v>0.5786</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373">
+        <v>0.6804</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374">
+        <v>0.7175</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375">
+        <v>0.6466</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377">
+        <v>0.8685</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378">
+        <v>0.568</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379">
+        <v>0.8436</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380">
+        <v>0.6022</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381">
+        <v>0.5436</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382">
+        <v>0.9172</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383">
+        <v>0.4129</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384">
+        <v>0.5984</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385">
+        <v>0.2436</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386">
+        <v>0.2322</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387">
+        <v>0.3321</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388">
+        <v>0.2192</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389">
+        <v>0.3058</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390">
+        <v>0.1429</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391">
+        <v>0.2819</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392">
+        <v>0.256</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393">
+        <v>0.2112</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394">
+        <v>0.6742</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395">
+        <v>0.228</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396">
+        <v>0.0006</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397">
+        <v>0.4737</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398">
+        <v>0.3986</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399">
+        <v>0.4694</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400">
+        <v>0.0591</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401">
+        <v>0.6659</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402">
+        <v>0.5728</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403">
+        <v>0.2225</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404">
+        <v>0.5663</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405">
+        <v>0.7093</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406">
+        <v>0.9992</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407">
+        <v>0.8868</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408">
+        <v>0.0128</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409">
+        <v>0.0105</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410">
+        <v>0.2897</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411">
+        <v>0.8718</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412">
+        <v>0.8286</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413">
+        <v>0.4179</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414">
+        <v>0.9932</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415">
+        <v>0.4131</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416">
+        <v>0.6142</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417">
+        <v>0.491</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418">
+        <v>0.7644</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419">
+        <v>0.3493</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420">
+        <v>0.5772</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421">
+        <v>0.5699</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422">
+        <v>0.9936</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423">
+        <v>0.4447</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425">
+        <v>0.6055</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426">
+        <v>0.8042</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427">
+        <v>0.4915</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428">
+        <v>0.8039</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429">
+        <v>0.4679</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430">
+        <v>0.9407</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431">
+        <v>0.2682</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432">
+        <v>0.1743</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433">
+        <v>0.7609</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434">
+        <v>0.073</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435">
+        <v>0.7633</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436">
+        <v>0.2625</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437">
+        <v>0.7243</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438">
+        <v>0.1834</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439">
+        <v>0.4794</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440">
+        <v>0.8486</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441">
+        <v>0.9969</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442">
+        <v>0.7052</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443">
+        <v>0.6755</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444">
+        <v>0.3307</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445">
+        <v>0.1087</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446">
+        <v>0.5818</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447">
+        <v>0.9331</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448">
+        <v>0.6682</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449">
+        <v>0.7543</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450">
+        <v>0.5519</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451">
+        <v>0.5725</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452">
+        <v>0.1988</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453">
+        <v>0.6952</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454">
+        <v>0.886</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455">
+        <v>0.9497</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456">
+        <v>0.9788</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457">
+        <v>0.2762</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458">
+        <v>0.8059</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459">
+        <v>0.6258</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460">
+        <v>0.4069</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461">
+        <v>0.1247</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462">
+        <v>0.845</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463">
+        <v>0.7127</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464">
+        <v>0.2676</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466">
+        <v>0.0266</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468">
+        <v>0.895</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469">
+        <v>0.6602</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470">
+        <v>0.1227</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471">
+        <v>0.6871</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472">
+        <v>0.2465</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473">
+        <v>0.4611</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474">
+        <v>0.4038</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476">
+        <v>0.476</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477">
+        <v>0.5802</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478">
+        <v>0.8067</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479">
+        <v>0.6889</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480">
+        <v>0.3886</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481">
+        <v>0.6799</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482">
+        <v>0.6781</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483">
+        <v>0.5359</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484">
+        <v>0.3093</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485">
+        <v>0.4192</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486">
+        <v>0.0958</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487">
+        <v>0.5634</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488">
+        <v>0.4804</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489">
+        <v>0.9275</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490">
+        <v>0.2261</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491">
+        <v>0.8505</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492">
+        <v>0.1469</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493">
+        <v>0.5977</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494">
+        <v>0.1884</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495">
+        <v>0.8741</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496">
+        <v>0.0101</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497">
+        <v>0.9739</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498">
+        <v>0.8894</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499">
+        <v>0.2181</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500">
+        <v>0.2189</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501">
+        <v>0.2821</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502">
+        <v>0.2717</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503">
+        <v>0.4507</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504">
+        <v>0.5827</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505">
+        <v>0.0041</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506">
+        <v>0.2369</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507">
+        <v>0.7032</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508">
+        <v>0.5176</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509">
+        <v>0.8645</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510">
+        <v>0.2522</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511">
+        <v>0.9111</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512">
+        <v>0.9313</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513">
+        <v>0.5261</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514">
+        <v>0.5355</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515">
+        <v>0.2777</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516">
+        <v>0.9244</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517">
+        <v>0.9813</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518">
+        <v>0.4736</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519">
+        <v>0.3907</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520">
+        <v>0.8457</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521">
+        <v>0.768</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522">
+        <v>0.6336</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523">
+        <v>0.0227</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524">
+        <v>0.7921</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525">
+        <v>0.5362</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526">
+        <v>0.3329</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527">
+        <v>0.2824</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528">
+        <v>0.2954</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529">
+        <v>0.3218</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530">
+        <v>0.4061</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531">
+        <v>0.0615</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532">
+        <v>0.8554</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533">
+        <v>0.5338</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534">
+        <v>0.1435</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535">
+        <v>0.3293</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536">
+        <v>0.9982</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537">
+        <v>0.8078</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538">
+        <v>0.7758</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539">
+        <v>0.2494</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540">
+        <v>0.6901</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541">
+        <v>0.4833</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542">
+        <v>0.1565</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543">
+        <v>0.3556</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544">
+        <v>0.0746</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545">
+        <v>0.8896</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546">
+        <v>0.2339</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547">
+        <v>0.4664</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548">
+        <v>0.8222</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549">
+        <v>0.9126</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550">
+        <v>0.0497</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551">
+        <v>0.9238</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552">
+        <v>0.934</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553">
+        <v>0.7393</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554">
+        <v>0.3677</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555">
+        <v>0.0299</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556">
+        <v>0.3606</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557">
+        <v>0.4693</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558">
+        <v>0.0512</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559">
+        <v>0.0422</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560">
+        <v>0.3316</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561">
+        <v>0.1798</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562">
+        <v>0.1952</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563">
+        <v>0.411</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564">
+        <v>0.4484</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565">
+        <v>0.4011</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566">
+        <v>0.6668</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567">
+        <v>0.6438</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568">
+        <v>0.828</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569">
+        <v>0.3706</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570">
+        <v>0.2588</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571">
+        <v>0.4322</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572">
+        <v>0.1221</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573">
+        <v>0.6397</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574">
+        <v>0.5043</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575">
+        <v>0.8144</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576">
+        <v>0.2968</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577">
+        <v>0.4323</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579">
+        <v>0.2635</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580">
+        <v>0.8033</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581">
+        <v>0.4205</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582">
+        <v>0.1984</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583">
+        <v>0.6636</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584">
+        <v>0.3912</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585">
+        <v>0.8852</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586">
+        <v>0.8865</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587">
+        <v>0.9891</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588">
+        <v>0.0894</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589">
+        <v>0.0581</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590">
+        <v>0.5869</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591">
+        <v>0.3357</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592">
+        <v>0.5035</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593">
+        <v>0.7513</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594">
+        <v>0.3151</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595">
+        <v>0.8771</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597">
+        <v>0.5006</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598">
+        <v>0.5223</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599">
+        <v>0.2355</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600">
+        <v>0.5927</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601">
+        <v>0.7936</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602">
+        <v>0.6547</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603">
+        <v>0.6885</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605">
+        <v>0.1851</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606">
+        <v>0.6136</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607">
+        <v>0.4437</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608">
+        <v>0.0301</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609">
+        <v>0.3763</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610">
+        <v>0.7088</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611">
+        <v>0.9597</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612">
+        <v>0.7683</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613">
+        <v>0.6572</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614">
+        <v>0.8859</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615">
+        <v>0.9418</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616">
+        <v>0.3551</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617">
+        <v>0.0351</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618">
+        <v>0.7711</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619">
+        <v>0.8783</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620">
+        <v>0.3417</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621">
+        <v>0.9772</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622">
+        <v>0.1499</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623">
+        <v>0.8346</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624">
+        <v>0.8916</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625">
+        <v>0.3918</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626">
+        <v>0.9326</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627">
+        <v>0.6287</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628">
+        <v>0.6358</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629">
+        <v>0.1964</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630">
+        <v>0.5057</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632">
+        <v>0.0287</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633">
+        <v>0.2658</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634">
+        <v>0.9849</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635">
+        <v>0.7578</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636">
+        <v>0.8283</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637">
+        <v>0.3942</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639">
+        <v>0.6319</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640">
+        <v>0.8885</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641">
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642">
+        <v>0.6056</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643">
+        <v>0.8121</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644">
+        <v>0.1152</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646">
+        <v>0.5002</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647">
+        <v>0.4907</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648">
+        <v>0.7407</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649">
+        <v>0.4782</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650">
+        <v>0.7538</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651">
+        <v>0.5125</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652">
+        <v>0.4618</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653">
+        <v>0.4591</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654">
+        <v>0.2459</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655">
+        <v>0.4138</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656">
+        <v>0.6695</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657">
+        <v>0.857</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658">
+        <v>0.6601</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659">
+        <v>0.1148</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660">
+        <v>0.0634</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661">
+        <v>0.0054</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662">
+        <v>0.2633</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663">
+        <v>0.7875</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664">
+        <v>0.1731</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665">
+        <v>0.6662</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666">
+        <v>0.5964</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667">
+        <v>0.0857</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668">
+        <v>0.766</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669">
+        <v>0.4757</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670">
+        <v>0.5565</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671">
+        <v>0.9356</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672">
+        <v>0.8656</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673">
+        <v>0.3391</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674">
+        <v>0.7719</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675">
+        <v>0.9415</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676">
+        <v>0.3314</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677">
+        <v>0.164</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678">
+        <v>0.9478</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679">
+        <v>0.8288</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680">
+        <v>0.4337</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681">
+        <v>0.2406</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682">
+        <v>0.9953</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683">
+        <v>0.5789</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684">
+        <v>0.7041</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685">
+        <v>0.5886</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686">
+        <v>0.4699</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687">
+        <v>0.0986</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688">
+        <v>0.7844</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689">
+        <v>0.9283</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690">
+        <v>0.2892</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691">
+        <v>0.8323</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693">
+        <v>0.0545</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694">
+        <v>0.3027</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695">
+        <v>0.8981</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696">
+        <v>0.9049</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697">
+        <v>0.4418</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698">
+        <v>0.8801</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699">
+        <v>0.4838</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700">
+        <v>0.196</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701">
+        <v>0.4742</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703">
+        <v>0.5801</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704">
+        <v>0.7988</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705">
+        <v>0.0652</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706">
+        <v>0.1475</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707">
+        <v>0.6451</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708">
+        <v>0.9306</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709">
+        <v>0.4708</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710">
+        <v>0.1696</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711">
+        <v>0.3899</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712">
+        <v>0.7826</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713">
+        <v>0.7862</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714">
+        <v>0.0704</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715">
+        <v>0.558</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716">
+        <v>0.0541</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717">
+        <v>0.2711</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718">
+        <v>0.4033</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719">
+        <v>0.8405</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720">
+        <v>0.3574</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721">
+        <v>0.2167</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722">
+        <v>0.1084</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723">
+        <v>0.5581</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724">
+        <v>0.0619</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725">
+        <v>0.887</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726">
+        <v>0.0286</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727">
+        <v>0.2579</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728">
+        <v>0.3612</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729">
+        <v>0.5167</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730">
+        <v>0.7934</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731">
+        <v>0.6389</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732">
+        <v>0.4411</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733">
+        <v>0.8248</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734">
+        <v>0.1179</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735">
+        <v>0.3082</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736">
+        <v>0.3323</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737">
+        <v>0.235</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738">
+        <v>0.5532</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739">
+        <v>0.6751</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740">
+        <v>0.2991</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741">
+        <v>0.6139</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742">
+        <v>0.4674</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743">
+        <v>0.9012</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744">
+        <v>0.1497</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745">
+        <v>0.8188</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746">
+        <v>0.6442</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747">
+        <v>0.8595</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748">
+        <v>0.8575</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749">
+        <v>0.6996</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750">
+        <v>0.2334</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751">
+        <v>0.4269</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752">
+        <v>0.7037</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753">
+        <v>0.5571</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754">
+        <v>0.983</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755">
+        <v>0.6078</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756">
+        <v>0.9858</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757">
+        <v>0.8289</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758">
+        <v>0.4416</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759">
+        <v>0.8643</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760">
+        <v>0.2364</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761">
+        <v>0.6637</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762">
+        <v>0.3991</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763">
+        <v>0.5089</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764">
+        <v>0.1776</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765">
+        <v>0.0215</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766">
+        <v>0.6974</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767">
+        <v>0.0597</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768">
+        <v>0.7133</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770">
+        <v>0.8692</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771">
+        <v>0.6233</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772">
+        <v>0.2095</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774">
+        <v>0.633</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775">
+        <v>0.9753</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776">
+        <v>0.9999</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777">
+        <v>0.9421</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778">
+        <v>0.3787</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779">
+        <v>0.8983</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780">
+        <v>0.9207</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781">
+        <v>0.6892</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782">
+        <v>0.4123</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783">
+        <v>0.551</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784">
+        <v>0.5014</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785">
+        <v>0.5855</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786">
+        <v>0.2252</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787">
+        <v>0.7795</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788">
+        <v>0.5415</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789">
+        <v>0.7514</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790">
+        <v>0.323</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1">
+      <c r="A791">
+        <v>0.5008</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792">
+        <v>0.5381</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793">
+        <v>0.4829</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794">
+        <v>0.1249</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795">
+        <v>0.8608</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796">
+        <v>0.9601</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797">
+        <v>0.7998</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798">
+        <v>0.1442</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799">
+        <v>0.3845</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800">
+        <v>0.3562</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801">
+        <v>0.1219</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803">
+        <v>0.2648</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804">
+        <v>0.9059</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805">
+        <v>0.5208</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806">
+        <v>0.1171</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1">
+      <c r="A807">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808">
+        <v>0.3427</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809">
+        <v>0.0561</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1">
+      <c r="A810">
+        <v>0.429</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811">
+        <v>0.8695</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1">
+      <c r="A812">
+        <v>0.647</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1">
+      <c r="A813">
+        <v>0.0806</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814">
+        <v>0.3633</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1">
+      <c r="A815">
+        <v>0.6825</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1">
+      <c r="A816">
+        <v>0.8833</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817">
+        <v>0.7365</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818">
+        <v>0.1466</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1">
+      <c r="A819">
+        <v>0.574</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820">
+        <v>0.3173</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821">
+        <v>0.0508</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822">
+        <v>0.0106</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823">
+        <v>0.3687</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824">
+        <v>0.1088</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825">
+        <v>0.5897</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826">
+        <v>0.5568</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827">
+        <v>0.9593</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828">
+        <v>0.7367</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829">
+        <v>0.1624</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830">
+        <v>0.8214</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831">
+        <v>0.8495</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833">
+        <v>0.3686</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835">
+        <v>0.966</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836">
+        <v>0.2657</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837">
+        <v>0.977</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838">
+        <v>0.1341</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839">
+        <v>0.5871</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840">
+        <v>0.3515</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841">
+        <v>0.7509</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842">
+        <v>0.2835</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1">
+      <c r="A843">
+        <v>0.3823</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844">
+        <v>0.1825</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845">
+        <v>0.4083</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1">
+      <c r="A846">
+        <v>0.2352</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1">
+      <c r="A847">
+        <v>0.569</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848">
+        <v>0.9225</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849">
+        <v>0.8313</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850">
+        <v>0.6311</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851">
+        <v>0.8253</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1">
+      <c r="A852">
+        <v>0.1574</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1">
+      <c r="A853">
+        <v>0.4267</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1">
+      <c r="A854">
+        <v>0.6879</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1">
+      <c r="A855">
+        <v>0.3097</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1">
+      <c r="A856">
+        <v>0.4508</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1">
+      <c r="A857">
+        <v>0.5906</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1">
+      <c r="A858">
+        <v>0.6278</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1">
+      <c r="A859">
+        <v>0.5648</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1">
+      <c r="A860">
+        <v>0.5909</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1">
+      <c r="A861">
+        <v>0.6515</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1">
+      <c r="A862">
+        <v>0.4359</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863">
+        <v>0.4143</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1">
+      <c r="A864">
+        <v>0.7089</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865">
+        <v>0.9676</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866">
+        <v>0.392</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867">
+        <v>0.9484</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868">
+        <v>0.8761</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869">
+        <v>0.168</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1">
+      <c r="A870">
+        <v>0.2636</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871">
+        <v>0.8112</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872">
+        <v>0.0442</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873">
+        <v>0.4895</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1">
+      <c r="A874">
+        <v>0.646</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875">
+        <v>0.0017</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876">
+        <v>0.3421</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1">
+      <c r="A877">
+        <v>0.0087</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878">
+        <v>0.8686</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1">
+      <c r="A879">
+        <v>0.5759</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880">
+        <v>0.4673</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881">
+        <v>0.8933</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882">
+        <v>0.526</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1">
+      <c r="A883">
+        <v>0.5277</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884">
+        <v>0.6619</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1">
+      <c r="A885">
+        <v>0.257</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1">
+      <c r="A886">
+        <v>0.2901</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887">
+        <v>0.9033</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1">
+      <c r="A888">
+        <v>0.3155</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1">
+      <c r="A889">
+        <v>0.9087</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1">
+      <c r="A890">
+        <v>0.7418</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1">
+      <c r="A891">
+        <v>0.5651</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1">
+      <c r="A892">
+        <v>0.6146</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1">
+      <c r="A893">
+        <v>0.5226</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1">
+      <c r="A894">
+        <v>0.2592</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1">
+      <c r="A895">
+        <v>0.4638</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1">
+      <c r="A896">
+        <v>0.617</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1">
+      <c r="A897">
+        <v>0.7121</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1">
+      <c r="A898">
+        <v>0.2202</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1">
+      <c r="A899">
+        <v>0.3847</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1">
+      <c r="A900">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1">
+      <c r="A901">
+        <v>0.3694</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1">
+      <c r="A902">
+        <v>0.1641</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1">
+      <c r="A903">
+        <v>0.9556</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1">
+      <c r="A904">
+        <v>0.4446</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1">
+      <c r="A905">
+        <v>0.1011</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1">
+      <c r="A906">
+        <v>0.9818</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1">
+      <c r="A907">
+        <v>0.5131</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1">
+      <c r="A908">
+        <v>0.5092</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1">
+      <c r="A909">
+        <v>0.2013</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1">
+      <c r="A910">
+        <v>0.8926</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1">
+      <c r="A911">
+        <v>0.4707</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1">
+      <c r="A912">
+        <v>0.1617</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1">
+      <c r="A913">
+        <v>0.7662</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1">
+      <c r="A914">
+        <v>0.4914</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1">
+      <c r="A915">
+        <v>0.796</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1">
+      <c r="A916">
+        <v>0.8442</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1">
+      <c r="A917">
+        <v>0.6495</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1">
+      <c r="A918">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1">
+      <c r="A919">
+        <v>0.9481</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1">
+      <c r="A920">
+        <v>0.8524</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1">
+      <c r="A921">
+        <v>0.2969</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1">
+      <c r="A922">
+        <v>0.4402</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1">
+      <c r="A923">
+        <v>0.7537</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1">
+      <c r="A924">
+        <v>0.5046</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1">
+      <c r="A925">
+        <v>0.8381</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1">
+      <c r="A926">
+        <v>0.1679</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1">
+      <c r="A927">
+        <v>0.2557</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1">
+      <c r="A928">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1">
+      <c r="A929">
+        <v>0.8031</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1">
+      <c r="A930">
+        <v>0.4047</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1">
+      <c r="A931">
+        <v>0.951</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1">
+      <c r="A932">
+        <v>0.0814</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1">
+      <c r="A933">
+        <v>0.4265</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1">
+      <c r="A934">
+        <v>0.6721</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1">
+      <c r="A935">
+        <v>0.0622</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1">
+      <c r="A936">
+        <v>0.9106</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1">
+      <c r="A937">
+        <v>0.8918</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1">
+      <c r="A938">
+        <v>0.4076</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1">
+      <c r="A939">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1">
+      <c r="A940">
+        <v>0.211</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1">
+      <c r="A941">
+        <v>0.6584</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1">
+      <c r="A942">
+        <v>0.9806</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1">
+      <c r="A943">
+        <v>0.4183</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1">
+      <c r="A944">
+        <v>0.0247</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1">
+      <c r="A945">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1">
+      <c r="A946">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1">
+      <c r="A947">
+        <v>0.9737</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1">
+      <c r="A948">
+        <v>0.8736</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1">
+      <c r="A949">
+        <v>0.9707</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1">
+      <c r="A950">
+        <v>0.6367</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1">
+      <c r="A951">
+        <v>0.2674</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1">
+      <c r="A952">
+        <v>0.1112</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1">
+      <c r="A953">
+        <v>0.7792</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1">
+      <c r="A954">
+        <v>0.5178</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1">
+      <c r="A955">
+        <v>0.8803</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1">
+      <c r="A956">
+        <v>0.4996</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1">
+      <c r="A957">
+        <v>0.4434</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1">
+      <c r="A958">
+        <v>0.0064</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1">
+      <c r="A959">
+        <v>0.0528</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1">
+      <c r="A960">
+        <v>0.1685</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1">
+      <c r="A961">
+        <v>0.303</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1">
+      <c r="A962">
+        <v>0.9218</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1">
+      <c r="A963">
+        <v>0.7761</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1">
+      <c r="A964">
+        <v>0.273</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1">
+      <c r="A965">
+        <v>0.5533</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1">
+      <c r="A966">
+        <v>0.683</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1">
+      <c r="A967">
+        <v>0.9228</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1">
+      <c r="A968">
+        <v>0.855</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1">
+      <c r="A969">
+        <v>0.5022</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1">
+      <c r="A970">
+        <v>0.6486</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1">
+      <c r="A971">
+        <v>0.2069</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1">
+      <c r="A972">
+        <v>0.3347</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1">
+      <c r="A973">
+        <v>0.4245</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1">
+      <c r="A974">
+        <v>0.5142</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1">
+      <c r="A975">
+        <v>0.596</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1">
+      <c r="A976">
+        <v>0.0542</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1">
+      <c r="A977">
+        <v>0.279</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1">
+      <c r="A979">
+        <v>0.1316</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1">
+      <c r="A980">
+        <v>0.3898</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981">
+        <v>0.7747</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1">
+      <c r="A982">
+        <v>0.1625</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1">
+      <c r="A983">
+        <v>0.8293</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1">
+      <c r="A984">
+        <v>0.4732</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1">
+      <c r="A985">
+        <v>0.3591</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1">
+      <c r="A986">
+        <v>0.3509</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1">
+      <c r="A987">
+        <v>0.7035</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1">
+      <c r="A988">
+        <v>0.5413</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989">
+        <v>0.7356</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1">
+      <c r="A990">
+        <v>0.0756</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1">
+      <c r="A991">
+        <v>0.9686</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1">
+      <c r="A992">
+        <v>0.4709</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1">
+      <c r="A993">
+        <v>0.1775</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1">
+      <c r="A994">
+        <v>0.0136</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1">
+      <c r="A995">
+        <v>0.0737</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1">
+      <c r="A996">
+        <v>0.8186</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1">
+      <c r="A997">
+        <v>0.6284</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1">
+      <c r="A998">
+        <v>0.6121</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1">
+      <c r="A999">
+        <v>0.3252</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1">
+      <c r="A1000">
+        <v>0.6745</v>
+      </c>
+    </row>
+  </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
